--- a/data/pca/factorExposure/factorExposure_2009-05-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01722933129996557</v>
+        <v>-0.01657639224517893</v>
       </c>
       <c r="C2">
-        <v>0.001622058222040398</v>
+        <v>-0.001088134198040534</v>
       </c>
       <c r="D2">
-        <v>0.01014302757259411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0100509001467842</v>
+      </c>
+      <c r="E2">
+        <v>-0.002276101751709502</v>
+      </c>
+      <c r="F2">
+        <v>-0.01249290409361007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.08886674275784472</v>
+        <v>-0.09155296419061956</v>
       </c>
       <c r="C4">
-        <v>0.02009345204488946</v>
+        <v>-0.01543794653668471</v>
       </c>
       <c r="D4">
-        <v>0.07824426379619716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08193803545264985</v>
+      </c>
+      <c r="E4">
+        <v>-0.02672943036910553</v>
+      </c>
+      <c r="F4">
+        <v>0.03241947671981616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-4.467189013689484e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.630536912435477e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0002323617856256266</v>
+      </c>
+      <c r="E5">
+        <v>-9.566315113600324e-05</v>
+      </c>
+      <c r="F5">
+        <v>-7.735756573436696e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1540523645170767</v>
+        <v>-0.1620686747470482</v>
       </c>
       <c r="C6">
-        <v>0.03135178326683698</v>
+        <v>-0.03020753749054227</v>
       </c>
       <c r="D6">
-        <v>-0.03583391685858325</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02549749604706429</v>
+      </c>
+      <c r="E6">
+        <v>-0.0122016511724558</v>
+      </c>
+      <c r="F6">
+        <v>0.04061461471264942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05956758239559414</v>
+        <v>-0.06207524576882386</v>
       </c>
       <c r="C7">
-        <v>0.002015336313336056</v>
+        <v>0.001196200935381928</v>
       </c>
       <c r="D7">
-        <v>0.04861672241195761</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05390316182797592</v>
+      </c>
+      <c r="E7">
+        <v>-0.01552007083234126</v>
+      </c>
+      <c r="F7">
+        <v>0.04908286686967522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06105059340088997</v>
+        <v>-0.05708635331807092</v>
       </c>
       <c r="C8">
-        <v>-0.009868768714874725</v>
+        <v>0.01162105276451628</v>
       </c>
       <c r="D8">
-        <v>0.02619622981120109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02996687710868853</v>
+      </c>
+      <c r="E8">
+        <v>-0.0190658606990936</v>
+      </c>
+      <c r="F8">
+        <v>-0.02975534888976265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06902030308555968</v>
+        <v>-0.07115796543168065</v>
       </c>
       <c r="C9">
-        <v>0.01600888504614684</v>
+        <v>-0.01093013493561493</v>
       </c>
       <c r="D9">
-        <v>0.08054230415267789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08554041008223678</v>
+      </c>
+      <c r="E9">
+        <v>-0.02507528879713945</v>
+      </c>
+      <c r="F9">
+        <v>0.04852888755254976</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08660273729712499</v>
+        <v>-0.08776115022892866</v>
       </c>
       <c r="C10">
-        <v>0.01707298723386058</v>
+        <v>-0.0221797814603993</v>
       </c>
       <c r="D10">
-        <v>-0.1654530159960872</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1586733924693778</v>
+      </c>
+      <c r="E10">
+        <v>0.03216130348422265</v>
+      </c>
+      <c r="F10">
+        <v>-0.05987699594750079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.08981925657367887</v>
+        <v>-0.08704590033171797</v>
       </c>
       <c r="C11">
-        <v>0.0174092818826032</v>
+        <v>-0.01216706609452802</v>
       </c>
       <c r="D11">
-        <v>0.1117835933073655</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1178583703640296</v>
+      </c>
+      <c r="E11">
+        <v>-0.05158014558407727</v>
+      </c>
+      <c r="F11">
+        <v>0.02451943736892521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09693213756003993</v>
+        <v>-0.0910779406720931</v>
       </c>
       <c r="C12">
-        <v>0.01601866106637179</v>
+        <v>-0.009895579455022251</v>
       </c>
       <c r="D12">
-        <v>0.1178807349950967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1330698657117446</v>
+      </c>
+      <c r="E12">
+        <v>-0.051755972585398</v>
+      </c>
+      <c r="F12">
+        <v>0.03102483759405408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04468231259755784</v>
+        <v>-0.04375799637432124</v>
       </c>
       <c r="C13">
-        <v>0.006765542955903458</v>
+        <v>-0.003098705346209834</v>
       </c>
       <c r="D13">
-        <v>0.04585158115164135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05410597024191119</v>
+      </c>
+      <c r="E13">
+        <v>-6.853366000750313e-05</v>
+      </c>
+      <c r="F13">
+        <v>0.004013173226587055</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.0203202502799253</v>
+        <v>-0.02393772533219773</v>
       </c>
       <c r="C14">
-        <v>0.01547687416056188</v>
+        <v>-0.0142053779491334</v>
       </c>
       <c r="D14">
-        <v>0.03238469777547624</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0334718642950097</v>
+      </c>
+      <c r="E14">
+        <v>-0.02262680642214315</v>
+      </c>
+      <c r="F14">
+        <v>0.01213477319373004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03435470299080994</v>
+        <v>-0.0343811852202852</v>
       </c>
       <c r="C15">
-        <v>0.007707557188417346</v>
+        <v>-0.005952470846777808</v>
       </c>
       <c r="D15">
-        <v>0.04607832927409893</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04639646107110568</v>
+      </c>
+      <c r="E15">
+        <v>-0.008373145572970846</v>
+      </c>
+      <c r="F15">
+        <v>0.02976013848764829</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07365805884497519</v>
+        <v>-0.07157235639640866</v>
       </c>
       <c r="C16">
-        <v>0.007485242712700632</v>
+        <v>-0.001885507633959955</v>
       </c>
       <c r="D16">
-        <v>0.1153312583203133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1289130436980651</v>
+      </c>
+      <c r="E16">
+        <v>-0.06419649734546579</v>
+      </c>
+      <c r="F16">
+        <v>0.02824666482218609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001274670706705589</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0004661116666368899</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002263039122941501</v>
+      </c>
+      <c r="E17">
+        <v>-0.002050584697480031</v>
+      </c>
+      <c r="F17">
+        <v>-0.002214484530561382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02540246673041071</v>
+        <v>-0.04286086011405155</v>
       </c>
       <c r="C18">
-        <v>-0.001676786108851755</v>
+        <v>0.001720689079592152</v>
       </c>
       <c r="D18">
-        <v>0.02186378025376967</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01662874801505704</v>
+      </c>
+      <c r="E18">
+        <v>0.004088241225555759</v>
+      </c>
+      <c r="F18">
+        <v>-0.008996304317382756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06437225300115655</v>
+        <v>-0.06295005294287616</v>
       </c>
       <c r="C20">
-        <v>0.005835739812979136</v>
+        <v>-0.001948516942044914</v>
       </c>
       <c r="D20">
-        <v>0.07305207879040876</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07908923979001035</v>
+      </c>
+      <c r="E20">
+        <v>-0.06214600272940062</v>
+      </c>
+      <c r="F20">
+        <v>0.02978907579079722</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04092269841941162</v>
+        <v>-0.04271233022779353</v>
       </c>
       <c r="C21">
-        <v>0.0100134102580753</v>
+        <v>-0.007361199776590119</v>
       </c>
       <c r="D21">
-        <v>0.03480722626570644</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03602646814981923</v>
+      </c>
+      <c r="E21">
+        <v>-0.00255719805271288</v>
+      </c>
+      <c r="F21">
+        <v>-0.02476371430600407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04054484237662456</v>
+        <v>-0.04205060728196144</v>
       </c>
       <c r="C22">
-        <v>0.001300579917626471</v>
+        <v>-0.001051508212023703</v>
       </c>
       <c r="D22">
-        <v>9.482467266994412e-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.006377411043827191</v>
+      </c>
+      <c r="E22">
+        <v>-0.03640551776868071</v>
+      </c>
+      <c r="F22">
+        <v>-0.05078978064201783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04049966347930298</v>
+        <v>-0.04201963850606672</v>
       </c>
       <c r="C23">
-        <v>0.001286666030338387</v>
+        <v>-0.001039824507138992</v>
       </c>
       <c r="D23">
-        <v>0.0001232602110842585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.00639167056935919</v>
+      </c>
+      <c r="E23">
+        <v>-0.03643467760612813</v>
+      </c>
+      <c r="F23">
+        <v>-0.0508447162935208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08111041827129907</v>
+        <v>-0.07744499664956492</v>
       </c>
       <c r="C24">
-        <v>0.008115793827422623</v>
+        <v>-0.002694173143408271</v>
       </c>
       <c r="D24">
-        <v>0.1162693939806233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1219693797763281</v>
+      </c>
+      <c r="E24">
+        <v>-0.05109519433950703</v>
+      </c>
+      <c r="F24">
+        <v>0.03074720211240099</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08622489744177148</v>
+        <v>-0.08274844085480666</v>
       </c>
       <c r="C25">
-        <v>0.0105399248412638</v>
+        <v>-0.005710487464419666</v>
       </c>
       <c r="D25">
-        <v>0.1038663523304198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1101354123727896</v>
+      </c>
+      <c r="E25">
+        <v>-0.03459830989475689</v>
+      </c>
+      <c r="F25">
+        <v>0.02745392610851891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05749556781111904</v>
+        <v>-0.06073968459263339</v>
       </c>
       <c r="C26">
-        <v>0.018430525865445</v>
+        <v>-0.01517403510296845</v>
       </c>
       <c r="D26">
-        <v>0.03458457058923869</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0449360582282623</v>
+      </c>
+      <c r="E26">
+        <v>-0.03319855787570614</v>
+      </c>
+      <c r="F26">
+        <v>-0.007431547675261059</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1349338588852562</v>
+        <v>-0.1438580531009597</v>
       </c>
       <c r="C28">
-        <v>0.01650180597908673</v>
+        <v>-0.02432649777553035</v>
       </c>
       <c r="D28">
-        <v>-0.2637113892514527</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2588671968404861</v>
+      </c>
+      <c r="E28">
+        <v>0.06775309996788267</v>
+      </c>
+      <c r="F28">
+        <v>0.004194346234711589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02656577810014277</v>
+        <v>-0.02903790423640826</v>
       </c>
       <c r="C29">
-        <v>0.01019884519478841</v>
+        <v>-0.009360805926574242</v>
       </c>
       <c r="D29">
-        <v>0.02981015545525882</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03062826094917179</v>
+      </c>
+      <c r="E29">
+        <v>-0.01886573790745091</v>
+      </c>
+      <c r="F29">
+        <v>-0.0133039356311961</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.05813716437055896</v>
+        <v>-0.05590362816742888</v>
       </c>
       <c r="C30">
-        <v>0.007800164075242557</v>
+        <v>-0.002841760447958471</v>
       </c>
       <c r="D30">
-        <v>0.07961283996909195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08769149367251697</v>
+      </c>
+      <c r="E30">
+        <v>-0.01413375279108953</v>
+      </c>
+      <c r="F30">
+        <v>0.0796580420726818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05065705878198857</v>
+        <v>-0.05119671406022964</v>
       </c>
       <c r="C31">
-        <v>0.01777079209347908</v>
+        <v>-0.01643710622576223</v>
       </c>
       <c r="D31">
-        <v>0.021780081047668</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02464431481671926</v>
+      </c>
+      <c r="E31">
+        <v>-0.0296692286515431</v>
+      </c>
+      <c r="F31">
+        <v>-0.001671902975819078</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04763541634497991</v>
+        <v>-0.05169397738007171</v>
       </c>
       <c r="C32">
-        <v>0.002293274442068906</v>
+        <v>0.001007501805705129</v>
       </c>
       <c r="D32">
-        <v>0.0290009118453695</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03347617253800692</v>
+      </c>
+      <c r="E32">
+        <v>-0.03572344353049053</v>
+      </c>
+      <c r="F32">
+        <v>0.003389169235920059</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09069258908847284</v>
+        <v>-0.09030415991336047</v>
       </c>
       <c r="C33">
-        <v>0.01413052624751467</v>
+        <v>-0.008212221313431729</v>
       </c>
       <c r="D33">
-        <v>0.09099527301115654</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1047212755713681</v>
+      </c>
+      <c r="E33">
+        <v>-0.04934612926615099</v>
+      </c>
+      <c r="F33">
+        <v>0.04364232204353204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06859398902720715</v>
+        <v>-0.06696258864322119</v>
       </c>
       <c r="C34">
-        <v>0.01589061758968996</v>
+        <v>-0.01109232320102876</v>
       </c>
       <c r="D34">
-        <v>0.09757383901758367</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1097182194363104</v>
+      </c>
+      <c r="E34">
+        <v>-0.03857631621684283</v>
+      </c>
+      <c r="F34">
+        <v>0.03476367102445643</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02600468973995003</v>
+        <v>-0.02755330245570733</v>
       </c>
       <c r="C35">
-        <v>0.004210532314433416</v>
+        <v>-0.00369029941465873</v>
       </c>
       <c r="D35">
-        <v>0.008351579065732835</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01167491081862832</v>
+      </c>
+      <c r="E35">
+        <v>-0.01567238766341894</v>
+      </c>
+      <c r="F35">
+        <v>4.662252740002827e-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02488241185137856</v>
+        <v>-0.02854839669560814</v>
       </c>
       <c r="C36">
-        <v>0.008236194422359198</v>
+        <v>-0.007213292923621641</v>
       </c>
       <c r="D36">
-        <v>0.03819564841593157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03954158220735882</v>
+      </c>
+      <c r="E36">
+        <v>-0.01940341818536815</v>
+      </c>
+      <c r="F36">
+        <v>0.01502547071285359</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002089132710453206</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006839204626475667</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003461591345290993</v>
+      </c>
+      <c r="E37">
+        <v>-0.0006144825198614148</v>
+      </c>
+      <c r="F37">
+        <v>-0.001293866408448786</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1093120922901018</v>
+        <v>-0.09862939328095048</v>
       </c>
       <c r="C39">
-        <v>0.02306272787027497</v>
+        <v>-0.01668171958565984</v>
       </c>
       <c r="D39">
-        <v>0.1494384955309126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1518545476199481</v>
+      </c>
+      <c r="E39">
+        <v>-0.0614494229347649</v>
+      </c>
+      <c r="F39">
+        <v>0.02111705184689139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03893955408016274</v>
+        <v>-0.04431940559380965</v>
       </c>
       <c r="C40">
-        <v>0.009648655413478447</v>
+        <v>-0.008301364681365025</v>
       </c>
       <c r="D40">
-        <v>0.02451932112029618</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03277602703199166</v>
+      </c>
+      <c r="E40">
+        <v>-0.002972104797559301</v>
+      </c>
+      <c r="F40">
+        <v>-0.01687284695339656</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02494711816368831</v>
+        <v>-0.02731939754866199</v>
       </c>
       <c r="C41">
-        <v>0.007630591199173106</v>
+        <v>-0.006956789086596217</v>
       </c>
       <c r="D41">
-        <v>0.007573592068937745</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009688088645809506</v>
+      </c>
+      <c r="E41">
+        <v>-0.01313474793248093</v>
+      </c>
+      <c r="F41">
+        <v>-0.006911225554447733</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04140775835870227</v>
+        <v>-0.03984644405473432</v>
       </c>
       <c r="C43">
-        <v>0.008510040753561576</v>
+        <v>-0.007819901236004241</v>
       </c>
       <c r="D43">
-        <v>0.01761020475144678</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01963528135737089</v>
+      </c>
+      <c r="E43">
+        <v>-0.0277309445375749</v>
+      </c>
+      <c r="F43">
+        <v>-0.01614413647848585</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.06753166958486224</v>
+        <v>-0.07722785876038533</v>
       </c>
       <c r="C44">
-        <v>0.024385364069777</v>
+        <v>-0.02027149936043786</v>
       </c>
       <c r="D44">
-        <v>0.0948402362342087</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09454291836529727</v>
+      </c>
+      <c r="E44">
+        <v>-0.06230173058976107</v>
+      </c>
+      <c r="F44">
+        <v>0.1690627030572886</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02251816099264795</v>
+        <v>-0.02500163260917895</v>
       </c>
       <c r="C46">
-        <v>0.004708821096655733</v>
+        <v>-0.003795237328200814</v>
       </c>
       <c r="D46">
-        <v>0.01074158931299191</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01416790727273313</v>
+      </c>
+      <c r="E46">
+        <v>-0.03191477623671585</v>
+      </c>
+      <c r="F46">
+        <v>-0.005008818877624502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05365844001607366</v>
+        <v>-0.0529002686107046</v>
       </c>
       <c r="C47">
-        <v>0.00581795348824118</v>
+        <v>-0.004816061218029923</v>
       </c>
       <c r="D47">
-        <v>0.007048880771597517</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01079636120558245</v>
+      </c>
+      <c r="E47">
+        <v>-0.02475428581982485</v>
+      </c>
+      <c r="F47">
+        <v>-0.03186764185326887</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04827729195922897</v>
+        <v>-0.05147349886241922</v>
       </c>
       <c r="C48">
-        <v>0.005364842893800479</v>
+        <v>-0.002742989243217686</v>
       </c>
       <c r="D48">
-        <v>0.0478766791211569</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05038489153700274</v>
+      </c>
+      <c r="E48">
+        <v>0.003305544251113478</v>
+      </c>
+      <c r="F48">
+        <v>0.01223376910184877</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.1982500029123907</v>
+        <v>-0.2003729184045663</v>
       </c>
       <c r="C49">
-        <v>0.02420997185188033</v>
+        <v>-0.02218379092878469</v>
       </c>
       <c r="D49">
-        <v>-0.01177730067784379</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.005023679509207325</v>
+      </c>
+      <c r="E49">
+        <v>-0.02832411698878994</v>
+      </c>
+      <c r="F49">
+        <v>0.05122072949700784</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04927481064494631</v>
+        <v>-0.05167943698862693</v>
       </c>
       <c r="C50">
-        <v>0.0134254539397727</v>
+        <v>-0.01212270430679355</v>
       </c>
       <c r="D50">
-        <v>0.02192136453963871</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02448190152357145</v>
+      </c>
+      <c r="E50">
+        <v>-0.03252119185410417</v>
+      </c>
+      <c r="F50">
+        <v>0.009013731966647561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1545858892428095</v>
+        <v>-0.1475609482301204</v>
       </c>
       <c r="C52">
-        <v>0.02208261522617851</v>
+        <v>-0.01990867322976096</v>
       </c>
       <c r="D52">
-        <v>0.04085808298485899</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04314610509762488</v>
+      </c>
+      <c r="E52">
+        <v>-0.02074185749743977</v>
+      </c>
+      <c r="F52">
+        <v>0.0410951368957559</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1743207564587942</v>
+        <v>-0.168334124085145</v>
       </c>
       <c r="C53">
-        <v>0.02340750225662992</v>
+        <v>-0.02311281128140334</v>
       </c>
       <c r="D53">
-        <v>0.004855511361029566</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006589250501418604</v>
+      </c>
+      <c r="E53">
+        <v>-0.02738759099776742</v>
+      </c>
+      <c r="F53">
+        <v>0.07461517327533455</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01661288591751449</v>
+        <v>-0.01872803787871906</v>
       </c>
       <c r="C54">
-        <v>0.01214725847791264</v>
+        <v>-0.0110566698210793</v>
       </c>
       <c r="D54">
-        <v>0.02958806261307285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02920572510389272</v>
+      </c>
+      <c r="E54">
+        <v>-0.02112177343871191</v>
+      </c>
+      <c r="F54">
+        <v>-0.002444339540213334</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1182404488742946</v>
+        <v>-0.11619114521646</v>
       </c>
       <c r="C55">
-        <v>0.02037176295973409</v>
+        <v>-0.02019562062111851</v>
       </c>
       <c r="D55">
-        <v>0.003128410767055402</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008536222430101176</v>
+      </c>
+      <c r="E55">
+        <v>-0.02533294454885213</v>
+      </c>
+      <c r="F55">
+        <v>0.04571724180441447</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1810756328664507</v>
+        <v>-0.1756761325282415</v>
       </c>
       <c r="C56">
-        <v>0.02151728367507972</v>
+        <v>-0.02139579968127195</v>
       </c>
       <c r="D56">
-        <v>-0.007438728597927473</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.001952263871952706</v>
+      </c>
+      <c r="E56">
+        <v>-0.03122664018291177</v>
+      </c>
+      <c r="F56">
+        <v>0.05525417742164094</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04643331665378759</v>
+        <v>-0.04533432767565733</v>
       </c>
       <c r="C58">
-        <v>0.004970850743616539</v>
+        <v>-0.0002346708140032701</v>
       </c>
       <c r="D58">
-        <v>0.06570127005240672</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07615417041136066</v>
+      </c>
+      <c r="E58">
+        <v>-0.03618633719141785</v>
+      </c>
+      <c r="F58">
+        <v>-0.03654126498099036</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1617637718144688</v>
+        <v>-0.1680637163993106</v>
       </c>
       <c r="C59">
-        <v>0.01834001750337643</v>
+        <v>-0.02479098395659778</v>
       </c>
       <c r="D59">
-        <v>-0.2222425557563499</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2167284618345557</v>
+      </c>
+      <c r="E59">
+        <v>0.05205180485755993</v>
+      </c>
+      <c r="F59">
+        <v>-0.04141981744660281</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2383389082020401</v>
+        <v>-0.2298806795929633</v>
       </c>
       <c r="C60">
-        <v>0.005698894782002154</v>
+        <v>-0.002285177531251798</v>
       </c>
       <c r="D60">
-        <v>0.0367286535355995</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03974338114325929</v>
+      </c>
+      <c r="E60">
+        <v>0.0005655552754856388</v>
+      </c>
+      <c r="F60">
+        <v>0.006538698050785375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08008294921789841</v>
+        <v>-0.07405183318701804</v>
       </c>
       <c r="C61">
-        <v>0.01684021638301544</v>
+        <v>-0.01143154099028318</v>
       </c>
       <c r="D61">
-        <v>0.1110342229866122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1167467699299108</v>
+      </c>
+      <c r="E61">
+        <v>-0.04009105019130181</v>
+      </c>
+      <c r="F61">
+        <v>0.007984277687507337</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1732083947669174</v>
+        <v>-0.1687446735948079</v>
       </c>
       <c r="C62">
-        <v>0.02515211083488358</v>
+        <v>-0.02397351950679234</v>
       </c>
       <c r="D62">
-        <v>-0.0004133497661625832</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.007489328749361349</v>
+      </c>
+      <c r="E62">
+        <v>-0.03368475913069888</v>
+      </c>
+      <c r="F62">
+        <v>0.04108550920736036</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.0419000572237218</v>
+        <v>-0.0461252407942602</v>
       </c>
       <c r="C63">
-        <v>0.005862030547366746</v>
+        <v>-0.002573056187195708</v>
       </c>
       <c r="D63">
-        <v>0.04951000956703917</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06049392696782536</v>
+      </c>
+      <c r="E63">
+        <v>-0.02579853845684808</v>
+      </c>
+      <c r="F63">
+        <v>0.0004502688569440307</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1152491410113709</v>
+        <v>-0.1116820256034781</v>
       </c>
       <c r="C64">
-        <v>0.01753973735345964</v>
+        <v>-0.01407185498526018</v>
       </c>
       <c r="D64">
-        <v>0.03417797024457439</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04236287553711172</v>
+      </c>
+      <c r="E64">
+        <v>-0.02585980922930317</v>
+      </c>
+      <c r="F64">
+        <v>0.0269826300548577</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1453879576663962</v>
+        <v>-0.1526033936299962</v>
       </c>
       <c r="C65">
-        <v>0.03741711103740136</v>
+        <v>-0.03697310829449069</v>
       </c>
       <c r="D65">
-        <v>-0.05699227893226622</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04485508965854398</v>
+      </c>
+      <c r="E65">
+        <v>-0.006262298963567092</v>
+      </c>
+      <c r="F65">
+        <v>0.03767941130612698</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1320050969026531</v>
+        <v>-0.1185567623306659</v>
       </c>
       <c r="C66">
-        <v>0.02159003653894649</v>
+        <v>-0.01495527248183471</v>
       </c>
       <c r="D66">
-        <v>0.1329235689685129</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1413540058970071</v>
+      </c>
+      <c r="E66">
+        <v>-0.06575016896950756</v>
+      </c>
+      <c r="F66">
+        <v>0.027113383754388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06296111565879341</v>
+        <v>-0.05603619887243933</v>
       </c>
       <c r="C67">
-        <v>0.006503944264069323</v>
+        <v>-0.004281223944682258</v>
       </c>
       <c r="D67">
-        <v>0.05498255142222078</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05810219027012495</v>
+      </c>
+      <c r="E67">
+        <v>-0.02275160284123212</v>
+      </c>
+      <c r="F67">
+        <v>-0.03424247763552757</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1089841719433985</v>
+        <v>-0.1183618843373756</v>
       </c>
       <c r="C68">
-        <v>0.02659349936474079</v>
+        <v>-0.03502741261685186</v>
       </c>
       <c r="D68">
-        <v>-0.2631117449560517</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2597812521819413</v>
+      </c>
+      <c r="E68">
+        <v>0.08820641981742858</v>
+      </c>
+      <c r="F68">
+        <v>0.0006676770573814729</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03950006400939879</v>
+        <v>-0.038716178907758</v>
       </c>
       <c r="C69">
-        <v>0.002634870122101596</v>
+        <v>-0.001727505162359072</v>
       </c>
       <c r="D69">
-        <v>0.008616809226160775</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.009804495142375989</v>
+      </c>
+      <c r="E69">
+        <v>-0.02854953695528758</v>
+      </c>
+      <c r="F69">
+        <v>-0.0007852730868559304</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06803446017679675</v>
+        <v>-0.06769541696264965</v>
       </c>
       <c r="C70">
-        <v>-0.02392441619595399</v>
+        <v>0.02610711978528769</v>
       </c>
       <c r="D70">
-        <v>0.02432340886364034</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.028838724694014</v>
+      </c>
+      <c r="E70">
+        <v>0.0238805149563671</v>
+      </c>
+      <c r="F70">
+        <v>-0.1831628976730246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1279140183752984</v>
+        <v>-0.1386830614922076</v>
       </c>
       <c r="C71">
-        <v>0.03144725142213171</v>
+        <v>-0.03989628749307822</v>
       </c>
       <c r="D71">
-        <v>-0.2783020648149924</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2695597370489212</v>
+      </c>
+      <c r="E71">
+        <v>0.09829228457183271</v>
+      </c>
+      <c r="F71">
+        <v>0.004684095405871087</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1368479603501718</v>
+        <v>-0.1437801778690646</v>
       </c>
       <c r="C72">
-        <v>0.02956616565649211</v>
+        <v>-0.02977539478749689</v>
       </c>
       <c r="D72">
-        <v>-0.0003545823275642255</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003078215743809214</v>
+      </c>
+      <c r="E72">
+        <v>-0.03957654624871949</v>
+      </c>
+      <c r="F72">
+        <v>0.0286837060243802</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.202846260910119</v>
+        <v>-0.2037991739077848</v>
       </c>
       <c r="C73">
-        <v>0.01936858163420032</v>
+        <v>-0.01550727938847662</v>
       </c>
       <c r="D73">
-        <v>0.009082920391105823</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01874417375848759</v>
+      </c>
+      <c r="E73">
+        <v>-0.06394499598279364</v>
+      </c>
+      <c r="F73">
+        <v>0.04534089491781707</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0908461338972844</v>
+        <v>-0.09171224286840626</v>
       </c>
       <c r="C74">
-        <v>0.01504861942218209</v>
+        <v>-0.01435874323720111</v>
       </c>
       <c r="D74">
-        <v>0.0139380385185213</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01737510388793394</v>
+      </c>
+      <c r="E74">
+        <v>-0.04226414567632681</v>
+      </c>
+      <c r="F74">
+        <v>0.05283358203882465</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1332937296802333</v>
+        <v>-0.1253888974774239</v>
       </c>
       <c r="C75">
-        <v>0.03264736092427376</v>
+        <v>-0.03072423617821153</v>
       </c>
       <c r="D75">
-        <v>0.02320964861960394</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02973808147976913</v>
+      </c>
+      <c r="E75">
+        <v>-0.05564187153974896</v>
+      </c>
+      <c r="F75">
+        <v>0.02169216585665759</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08113334650783613</v>
+        <v>-0.09184998158413987</v>
       </c>
       <c r="C77">
-        <v>0.01467475093393683</v>
+        <v>-0.009498994429926674</v>
       </c>
       <c r="D77">
-        <v>0.1132228605707953</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.11640048662629</v>
+      </c>
+      <c r="E77">
+        <v>-0.04768706201885228</v>
+      </c>
+      <c r="F77">
+        <v>0.03513236399880081</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1013395213440037</v>
+        <v>-0.1011908125024841</v>
       </c>
       <c r="C78">
-        <v>0.04560449660790519</v>
+        <v>-0.04143557559544701</v>
       </c>
       <c r="D78">
-        <v>0.11291710486664</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1100096928418106</v>
+      </c>
+      <c r="E78">
+        <v>-0.07575207424114956</v>
+      </c>
+      <c r="F78">
+        <v>0.05356285551918651</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1672028112864608</v>
+        <v>-0.1637328803140045</v>
       </c>
       <c r="C79">
-        <v>0.02802714626598856</v>
+        <v>-0.02661527509371228</v>
       </c>
       <c r="D79">
-        <v>0.005943363274868126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01300346160904302</v>
+      </c>
+      <c r="E79">
+        <v>-0.04542674465462299</v>
+      </c>
+      <c r="F79">
+        <v>0.0122330806170358</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.0805387207155925</v>
+        <v>-0.07921303322010141</v>
       </c>
       <c r="C80">
-        <v>0.003067932061600026</v>
+        <v>-0.0002999481773838125</v>
       </c>
       <c r="D80">
-        <v>0.05382629922866232</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05350355835381281</v>
+      </c>
+      <c r="E80">
+        <v>-0.0368470051659741</v>
+      </c>
+      <c r="F80">
+        <v>-0.02807258063397504</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.120634367481877</v>
+        <v>-0.1154064469811735</v>
       </c>
       <c r="C81">
-        <v>0.03449651210337949</v>
+        <v>-0.03386119579357531</v>
       </c>
       <c r="D81">
-        <v>0.00694461726175098</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01200713025872964</v>
+      </c>
+      <c r="E81">
+        <v>-0.0517882517114387</v>
+      </c>
+      <c r="F81">
+        <v>0.01848925222805593</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1665137096905868</v>
+        <v>-0.1646924459844893</v>
       </c>
       <c r="C82">
-        <v>0.02840089113511678</v>
+        <v>-0.02855008467186775</v>
       </c>
       <c r="D82">
-        <v>0.006498462388548073</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.004604340141559384</v>
+      </c>
+      <c r="E82">
+        <v>-0.02618111550251997</v>
+      </c>
+      <c r="F82">
+        <v>0.08354318279430938</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.05989804782974723</v>
+        <v>-0.05471971479492864</v>
       </c>
       <c r="C83">
-        <v>0.005904695838873032</v>
+        <v>-0.003830739902565057</v>
       </c>
       <c r="D83">
-        <v>0.0362556440234196</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03878903687935402</v>
+      </c>
+      <c r="E83">
+        <v>0.0009466707471158602</v>
+      </c>
+      <c r="F83">
+        <v>-0.03603673957659041</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05978765336951677</v>
+        <v>-0.055536203265375</v>
       </c>
       <c r="C84">
-        <v>0.01376081878657605</v>
+        <v>-0.01094935804715847</v>
       </c>
       <c r="D84">
-        <v>0.07417599999963047</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07566592628767455</v>
+      </c>
+      <c r="E84">
+        <v>-0.01251207941648727</v>
+      </c>
+      <c r="F84">
+        <v>0.01616870809565412</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1402377474023846</v>
+        <v>-0.1352891922426761</v>
       </c>
       <c r="C85">
-        <v>0.03193337902933286</v>
+        <v>-0.0312164454485499</v>
       </c>
       <c r="D85">
-        <v>0.005528486689634795</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009890145953087121</v>
+      </c>
+      <c r="E85">
+        <v>-0.03571180981245225</v>
+      </c>
+      <c r="F85">
+        <v>0.04913081037665664</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09890996091723017</v>
+        <v>-0.09246673766366224</v>
       </c>
       <c r="C86">
-        <v>-0.002307073645409784</v>
+        <v>0.005223997762100161</v>
       </c>
       <c r="D86">
-        <v>0.016404115237122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05070194179970317</v>
+      </c>
+      <c r="E86">
+        <v>-0.2309645932505544</v>
+      </c>
+      <c r="F86">
+        <v>-0.8954697364127231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0945358545549171</v>
+        <v>-0.09161460090458441</v>
       </c>
       <c r="C87">
-        <v>0.02864194272858283</v>
+        <v>-0.02095105793498219</v>
       </c>
       <c r="D87">
-        <v>0.07164965485300859</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09027548992929606</v>
+      </c>
+      <c r="E87">
+        <v>0.05824253210608373</v>
+      </c>
+      <c r="F87">
+        <v>0.04938550130481953</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06310599667204515</v>
+        <v>-0.06142714736008046</v>
       </c>
       <c r="C88">
-        <v>0.006292619296198821</v>
+        <v>-0.003380713110476376</v>
       </c>
       <c r="D88">
-        <v>0.048958516161358</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0497475140840188</v>
+      </c>
+      <c r="E88">
+        <v>-0.02659826706638644</v>
+      </c>
+      <c r="F88">
+        <v>0.01373618419530887</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1194286350844813</v>
+        <v>-0.1281438028200807</v>
       </c>
       <c r="C89">
-        <v>0.007233175133384536</v>
+        <v>-0.01503529216828846</v>
       </c>
       <c r="D89">
-        <v>-0.2384824085820867</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2404707513871333</v>
+      </c>
+      <c r="E89">
+        <v>0.09005715986673338</v>
+      </c>
+      <c r="F89">
+        <v>-0.008620260366484641</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1393855362774516</v>
+        <v>-0.1534610371987841</v>
       </c>
       <c r="C90">
-        <v>0.02744164207338305</v>
+        <v>-0.03649033615321483</v>
       </c>
       <c r="D90">
-        <v>-0.2648340037175327</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2672710304934873</v>
+      </c>
+      <c r="E90">
+        <v>0.1159614990439022</v>
+      </c>
+      <c r="F90">
+        <v>-0.009733958598123572</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1234583323768214</v>
+        <v>-0.1204289971503905</v>
       </c>
       <c r="C91">
-        <v>0.02267651245450348</v>
+        <v>-0.02260916015090253</v>
       </c>
       <c r="D91">
-        <v>-0.0211890340546084</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01667692534667519</v>
+      </c>
+      <c r="E91">
+        <v>-0.05483622401017556</v>
+      </c>
+      <c r="F91">
+        <v>-0.001866995560705825</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1402130727189393</v>
+        <v>-0.1462131730401637</v>
       </c>
       <c r="C92">
-        <v>0.01826804884995211</v>
+        <v>-0.02744284515286426</v>
       </c>
       <c r="D92">
-        <v>-0.2938572367002125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2919834435289288</v>
+      </c>
+      <c r="E92">
+        <v>0.1025636350024616</v>
+      </c>
+      <c r="F92">
+        <v>-0.01995453862768174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1434815299319395</v>
+        <v>-0.155772377861246</v>
       </c>
       <c r="C93">
-        <v>0.02384662782224031</v>
+        <v>-0.03173851126526106</v>
       </c>
       <c r="D93">
-        <v>-0.2629155629906427</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2621378040471354</v>
+      </c>
+      <c r="E93">
+        <v>0.07515166874503834</v>
+      </c>
+      <c r="F93">
+        <v>0.002290907412771751</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1329460693516974</v>
+        <v>-0.1248920152732378</v>
       </c>
       <c r="C94">
-        <v>0.02890902177228988</v>
+        <v>-0.02645174751419348</v>
       </c>
       <c r="D94">
-        <v>0.03770058266595791</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.0418398089714936</v>
+      </c>
+      <c r="E94">
+        <v>-0.05672503400107449</v>
+      </c>
+      <c r="F94">
+        <v>0.03216150595894284</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1268121893921589</v>
+        <v>-0.1295471528309733</v>
       </c>
       <c r="C95">
-        <v>0.01118125886030073</v>
+        <v>-0.006189689660992643</v>
       </c>
       <c r="D95">
-        <v>0.08920418610340362</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09976051150586504</v>
+      </c>
+      <c r="E95">
+        <v>-0.05981754193966305</v>
+      </c>
+      <c r="F95">
+        <v>0.004747881749429183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1351165365423776</v>
+        <v>-0.1271691807279925</v>
       </c>
       <c r="C96">
-        <v>-0.9851072878683783</v>
+        <v>0.9851691487834626</v>
       </c>
       <c r="D96">
-        <v>-0.02061039789459829</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05045572046183169</v>
+      </c>
+      <c r="E96">
+        <v>-0.04932619339308788</v>
+      </c>
+      <c r="F96">
+        <v>0.04291517995144435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1870796177687216</v>
+        <v>-0.1914864132118426</v>
       </c>
       <c r="C97">
-        <v>-0.002622654890824287</v>
+        <v>0.002896318034744096</v>
       </c>
       <c r="D97">
-        <v>-0.02889029604583761</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.03153054869246801</v>
+      </c>
+      <c r="E97">
+        <v>-0.03776973385409542</v>
+      </c>
+      <c r="F97">
+        <v>-0.1133175368520993</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1999370539930305</v>
+        <v>-0.2061756146367897</v>
       </c>
       <c r="C98">
-        <v>0.01417760843838747</v>
+        <v>-0.01026124195656604</v>
       </c>
       <c r="D98">
-        <v>0.01339176721329483</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01530540513495975</v>
+      </c>
+      <c r="E98">
+        <v>0.07954978137840354</v>
+      </c>
+      <c r="F98">
+        <v>-0.09455596155949876</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05633998537714918</v>
+        <v>-0.05595033495794347</v>
       </c>
       <c r="C99">
-        <v>-0.001329502079218226</v>
+        <v>0.003401639278759421</v>
       </c>
       <c r="D99">
-        <v>0.03486083089354164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04111976619485232</v>
+      </c>
+      <c r="E99">
+        <v>-0.02635799071970705</v>
+      </c>
+      <c r="F99">
+        <v>0.003003770036089121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1480217810279733</v>
+        <v>-0.1341085177160525</v>
       </c>
       <c r="C100">
-        <v>-0.03576823503379348</v>
+        <v>0.04756671319757901</v>
       </c>
       <c r="D100">
-        <v>0.400605273648776</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3612257780066664</v>
+      </c>
+      <c r="E100">
+        <v>0.8794310780765446</v>
+      </c>
+      <c r="F100">
+        <v>-0.158915172722564</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02656301453863279</v>
+        <v>-0.02908426627648183</v>
       </c>
       <c r="C101">
-        <v>0.01019998676032098</v>
+        <v>-0.009384196959728967</v>
       </c>
       <c r="D101">
-        <v>0.02936453078474787</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03020026823134741</v>
+      </c>
+      <c r="E101">
+        <v>-0.01845079364148824</v>
+      </c>
+      <c r="F101">
+        <v>-0.01460732065592815</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
